--- a/vue-back-server/temp/invalid_data_Comptes Ouverts entre Mai et Septembre 2024 COFSN.xlsx
+++ b/vue-back-server/temp/invalid_data_Comptes Ouverts entre Mai et Septembre 2024 COFSN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J699"/>
+  <dimension ref="A1:K699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>Représentant Légal Manquant</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre d'Erreurs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +525,9 @@
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -556,6 +564,9 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -592,6 +603,9 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -628,6 +642,9 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -664,6 +681,9 @@
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -700,6 +720,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +759,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -772,6 +798,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -808,6 +837,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -844,6 +876,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -880,6 +915,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -916,6 +954,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -952,6 +993,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -988,6 +1032,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1024,6 +1071,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1060,6 +1110,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1096,6 +1149,9 @@
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1132,6 +1188,9 @@
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1168,6 +1227,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1204,6 +1266,9 @@
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1240,6 +1305,9 @@
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1276,6 +1344,9 @@
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1312,6 +1383,9 @@
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1352,6 +1426,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1388,6 +1465,9 @@
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1424,6 +1504,9 @@
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1460,6 +1543,9 @@
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1496,6 +1582,9 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1532,6 +1621,9 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1568,6 +1660,9 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1604,6 +1699,9 @@
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1640,6 +1738,9 @@
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1676,6 +1777,9 @@
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1712,6 +1816,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1748,6 +1855,9 @@
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1784,6 +1894,9 @@
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1820,6 +1933,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1856,6 +1972,9 @@
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1892,6 +2011,9 @@
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1928,6 +2050,9 @@
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1964,6 +2089,9 @@
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2000,6 +2128,9 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2036,6 +2167,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2072,6 +2206,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2108,6 +2245,9 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2144,6 +2284,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2184,6 +2327,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2220,6 +2366,9 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2256,6 +2405,9 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2292,6 +2444,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2328,6 +2483,9 @@
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2364,6 +2522,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2400,6 +2561,9 @@
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2436,6 +2600,9 @@
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2472,6 +2639,9 @@
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2508,6 +2678,9 @@
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2544,6 +2717,9 @@
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2580,6 +2756,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2616,6 +2795,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2652,6 +2834,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2688,6 +2873,9 @@
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2724,6 +2912,9 @@
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2760,6 +2951,9 @@
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2796,6 +2990,9 @@
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2832,6 +3029,9 @@
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2868,6 +3068,9 @@
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2904,6 +3107,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2940,6 +3146,9 @@
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2976,6 +3185,9 @@
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3012,6 +3224,9 @@
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3048,6 +3263,9 @@
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3084,6 +3302,9 @@
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3120,6 +3341,9 @@
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3156,6 +3380,9 @@
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3192,6 +3419,9 @@
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3228,6 +3458,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3264,6 +3497,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3300,6 +3536,9 @@
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3336,6 +3575,9 @@
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3372,6 +3614,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3408,6 +3653,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3444,6 +3692,9 @@
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3480,6 +3731,9 @@
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3516,6 +3770,9 @@
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3552,6 +3809,9 @@
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3588,6 +3848,9 @@
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3624,6 +3887,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3660,6 +3926,9 @@
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3696,6 +3965,9 @@
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3732,6 +4004,9 @@
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3768,6 +4043,9 @@
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3804,6 +4082,9 @@
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3840,6 +4121,9 @@
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3876,6 +4160,9 @@
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3912,6 +4199,9 @@
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3948,6 +4238,9 @@
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3984,6 +4277,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4020,6 +4316,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4056,6 +4355,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4092,6 +4394,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4128,6 +4433,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4164,6 +4472,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4200,6 +4511,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4236,6 +4550,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4272,6 +4589,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4308,6 +4628,9 @@
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4344,6 +4667,9 @@
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4380,6 +4706,9 @@
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4416,6 +4745,9 @@
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4452,6 +4784,9 @@
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4488,6 +4823,9 @@
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4524,6 +4862,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4560,6 +4901,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4596,6 +4940,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4632,6 +4979,9 @@
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4668,6 +5018,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4704,6 +5057,9 @@
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4740,6 +5096,9 @@
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4776,6 +5135,9 @@
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4815,6 +5177,9 @@
         <is>
           <t>Représentant Légal manquant</t>
         </is>
+      </c>
+      <c r="K121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -4852,6 +5217,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4888,6 +5256,9 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4924,6 +5295,9 @@
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4960,6 +5334,9 @@
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4996,6 +5373,9 @@
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5032,6 +5412,9 @@
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5068,6 +5451,9 @@
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5104,6 +5490,9 @@
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5140,6 +5529,9 @@
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5176,6 +5568,9 @@
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5212,6 +5607,9 @@
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5248,6 +5646,9 @@
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5284,6 +5685,9 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5320,6 +5724,9 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5356,6 +5763,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5392,6 +5802,9 @@
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5428,6 +5841,9 @@
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5464,6 +5880,9 @@
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5500,6 +5919,9 @@
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5536,6 +5958,9 @@
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5572,6 +5997,9 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5608,6 +6036,9 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5644,6 +6075,9 @@
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5680,6 +6114,9 @@
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5716,6 +6153,9 @@
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5756,6 +6196,9 @@
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5792,6 +6235,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5828,6 +6274,9 @@
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5864,6 +6313,9 @@
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5900,6 +6352,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5936,6 +6391,9 @@
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5972,6 +6430,9 @@
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6008,6 +6469,9 @@
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6044,6 +6508,9 @@
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6080,6 +6547,9 @@
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6116,6 +6586,9 @@
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6152,6 +6625,9 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6188,6 +6664,9 @@
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6224,6 +6703,9 @@
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6260,6 +6742,9 @@
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6296,6 +6781,9 @@
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6332,6 +6820,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6368,6 +6859,9 @@
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6404,6 +6898,9 @@
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6440,6 +6937,9 @@
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6476,6 +6976,9 @@
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6512,6 +7015,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6548,6 +7054,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6584,6 +7093,9 @@
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6620,6 +7132,9 @@
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6656,6 +7171,9 @@
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6692,6 +7210,9 @@
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6728,6 +7249,9 @@
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6764,6 +7288,9 @@
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6804,6 +7331,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K176" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6840,6 +7370,9 @@
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6876,6 +7409,9 @@
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6912,6 +7448,9 @@
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6948,6 +7487,9 @@
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6984,6 +7526,9 @@
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7020,6 +7565,9 @@
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7056,6 +7604,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7092,6 +7643,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7128,6 +7682,9 @@
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7164,6 +7721,9 @@
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7200,6 +7760,9 @@
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7236,6 +7799,9 @@
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7275,6 +7841,9 @@
         <is>
           <t>Représentant Légal manquant</t>
         </is>
+      </c>
+      <c r="K189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7312,6 +7881,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7348,6 +7920,9 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7384,6 +7959,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7420,6 +7998,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7456,6 +8037,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7492,6 +8076,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7528,6 +8115,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7564,6 +8154,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7600,6 +8193,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -7636,6 +8232,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -7672,6 +8271,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7708,6 +8310,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7744,6 +8349,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7780,6 +8388,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7816,6 +8427,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7852,6 +8466,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7888,6 +8505,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7924,6 +8544,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7960,6 +8583,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8000,6 +8626,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8036,6 +8665,9 @@
         </is>
       </c>
       <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8072,6 +8704,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -8108,6 +8743,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8144,6 +8782,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8180,6 +8821,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8216,6 +8860,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8252,6 +8899,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8288,6 +8938,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8324,6 +8977,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8360,6 +9016,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8396,6 +9055,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8432,6 +9094,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8468,6 +9133,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8504,6 +9172,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8540,6 +9211,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8576,6 +9250,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -8612,6 +9289,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -8648,6 +9328,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -8684,6 +9367,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -8720,6 +9406,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -8756,6 +9445,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -8796,6 +9488,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -8832,6 +9527,9 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -8868,6 +9566,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8904,6 +9605,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8940,6 +9644,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8976,6 +9683,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9012,6 +9722,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9048,6 +9761,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9084,6 +9800,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -9120,6 +9839,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9156,6 +9878,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -9192,6 +9917,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9228,6 +9956,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -9264,6 +9995,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9300,6 +10034,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9336,6 +10073,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9372,6 +10112,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9408,6 +10151,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -9444,6 +10190,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9480,6 +10229,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9516,6 +10268,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -9552,6 +10307,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -9588,6 +10346,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -9624,6 +10385,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -9660,6 +10424,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -9696,6 +10463,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -9732,6 +10502,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -9768,6 +10541,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -9804,6 +10580,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -9840,6 +10619,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -9876,6 +10658,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -9912,6 +10697,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -9948,6 +10736,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -9984,6 +10775,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10020,6 +10814,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10056,6 +10853,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10092,6 +10892,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10128,6 +10931,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10164,6 +10970,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10200,6 +11009,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10236,6 +11048,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10272,6 +11087,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10308,6 +11126,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10344,6 +11165,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10380,6 +11204,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10416,6 +11243,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10452,6 +11282,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -10488,6 +11321,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -10524,6 +11360,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -10560,6 +11399,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -10596,6 +11438,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -10632,6 +11477,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -10668,6 +11516,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10704,6 +11555,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -10740,6 +11594,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -10776,6 +11633,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -10812,6 +11672,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -10848,6 +11711,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -10884,6 +11750,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -10920,6 +11789,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -10956,6 +11828,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -10992,6 +11867,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -11028,6 +11906,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11064,6 +11945,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11100,6 +11984,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -11136,6 +12023,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11172,6 +12062,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11208,6 +12101,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11244,6 +12140,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11280,6 +12179,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11316,6 +12218,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -11352,6 +12257,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -11388,6 +12296,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -11424,6 +12335,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -11460,6 +12374,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -11496,6 +12413,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -11532,6 +12452,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -11568,6 +12491,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -11604,6 +12530,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -11640,6 +12569,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -11676,6 +12608,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -11712,6 +12647,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -11748,6 +12686,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -11784,6 +12725,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -11820,6 +12764,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -11856,6 +12803,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -11896,6 +12846,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -11932,6 +12885,9 @@
         </is>
       </c>
       <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -11968,6 +12924,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -12004,6 +12963,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -12040,6 +13002,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -12076,6 +13041,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -12112,6 +13080,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -12148,6 +13119,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -12184,6 +13158,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -12220,6 +13197,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -12256,6 +13236,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -12296,6 +13279,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -12332,6 +13318,9 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -12368,6 +13357,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -12404,6 +13396,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -12440,6 +13435,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -12476,6 +13474,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -12512,6 +13513,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -12548,6 +13552,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -12584,6 +13591,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -12620,6 +13630,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -12656,6 +13669,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -12692,6 +13708,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -12728,6 +13747,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -12764,6 +13786,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -12800,6 +13825,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -12836,6 +13864,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -12872,6 +13903,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -12908,6 +13942,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -12944,6 +13981,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -12980,6 +14020,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -13016,6 +14059,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -13052,6 +14098,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -13088,6 +14137,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -13124,6 +14176,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -13160,6 +14215,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -13196,6 +14254,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -13232,6 +14293,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -13268,6 +14332,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -13304,6 +14371,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -13340,6 +14410,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -13376,6 +14449,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -13412,6 +14488,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -13448,6 +14527,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -13484,6 +14566,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -13520,6 +14605,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -13556,6 +14644,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -13592,6 +14683,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K364" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -13628,6 +14722,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -13668,6 +14765,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K366" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -13704,6 +14804,9 @@
         </is>
       </c>
       <c r="J367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -13740,6 +14843,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -13776,6 +14882,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -13812,6 +14921,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K370" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -13848,6 +14960,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -13884,6 +14999,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -13920,6 +15038,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K373" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -13960,6 +15081,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K374" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -13996,6 +15120,9 @@
         </is>
       </c>
       <c r="J375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -14032,6 +15159,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K376" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -14068,6 +15198,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K377" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -14104,6 +15237,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K378" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -14140,6 +15276,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -14176,6 +15315,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -14212,6 +15354,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K381" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -14248,6 +15393,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K382" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -14284,6 +15432,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K383" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -14320,6 +15471,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -14356,6 +15510,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K385" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -14392,6 +15549,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -14428,6 +15588,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -14464,6 +15627,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -14500,6 +15666,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K389" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -14536,6 +15705,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K390" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -14572,6 +15744,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K391" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -14608,6 +15783,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K392" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -14644,6 +15822,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -14680,6 +15861,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -14716,6 +15900,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -14752,6 +15939,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -14788,6 +15978,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -14824,6 +16017,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -14860,6 +16056,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K399" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -14900,6 +16099,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K400" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -14936,6 +16138,9 @@
         </is>
       </c>
       <c r="J401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -14972,6 +16177,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K402" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -15008,6 +16216,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K403" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -15044,6 +16255,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K404" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -15080,6 +16294,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K405" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -15116,6 +16333,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -15152,6 +16372,9 @@
         </is>
       </c>
       <c r="J407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -15188,6 +16411,9 @@
         </is>
       </c>
       <c r="J408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -15224,6 +16450,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K409" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -15260,6 +16489,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K410" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -15296,6 +16528,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K411" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -15332,6 +16567,9 @@
         </is>
       </c>
       <c r="J412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -15368,6 +16606,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K413" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -15404,6 +16645,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K414" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -15440,6 +16684,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K415" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -15476,6 +16723,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K416" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -15512,6 +16762,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K417" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -15548,6 +16801,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K418" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -15584,6 +16840,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K419" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -15620,6 +16879,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K420" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -15656,6 +16918,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -15692,6 +16957,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K422" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -15728,6 +16996,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K423" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -15764,6 +17035,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K424" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -15800,6 +17074,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K425" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -15836,6 +17113,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K426" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -15872,6 +17152,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K427" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -15908,6 +17191,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K428" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -15944,6 +17230,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K429" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -15980,6 +17269,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K430" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -16016,6 +17308,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K431" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -16052,6 +17347,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K432" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -16088,6 +17386,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K433" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -16124,6 +17425,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -16160,6 +17464,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K435" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -16196,6 +17503,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K436" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -16232,6 +17542,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K437" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -16268,6 +17581,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K438" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -16304,6 +17620,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K439" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -16340,6 +17659,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K440" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -16380,6 +17702,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K441" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -16416,6 +17741,9 @@
         </is>
       </c>
       <c r="J442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -16452,6 +17780,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K443" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -16488,6 +17819,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K444" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -16524,6 +17858,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K445" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -16560,6 +17897,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K446" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -16596,6 +17936,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K447" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -16632,6 +17975,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K448" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -16668,6 +18014,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K449" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -16704,6 +18053,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K450" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -16740,6 +18092,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K451" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -16776,6 +18131,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K452" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -16812,6 +18170,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K453" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -16848,6 +18209,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K454" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -16884,6 +18248,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K455" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -16920,6 +18287,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K456" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -16956,6 +18326,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K457" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -16992,6 +18365,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K458" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -17028,6 +18404,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -17064,6 +18443,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K460" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -17100,6 +18482,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K461" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -17136,6 +18521,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -17172,6 +18560,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K463" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -17208,6 +18599,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K464" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -17244,6 +18638,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K465" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -17280,6 +18677,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K466" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -17316,6 +18716,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K467" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -17352,6 +18755,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K468" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -17388,6 +18794,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K469" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -17424,6 +18833,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K470" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -17460,6 +18872,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K471" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -17496,6 +18911,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K472" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -17532,6 +18950,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K473" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -17568,6 +18989,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K474" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -17604,6 +19028,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K475" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -17640,6 +19067,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K476" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -17676,6 +19106,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K477" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -17712,6 +19145,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K478" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -17748,6 +19184,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K479" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -17784,6 +19223,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K480" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -17820,6 +19262,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K481" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -17856,6 +19301,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K482" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -17892,6 +19340,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K483" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -17928,6 +19379,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K484" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -17964,6 +19418,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K485" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -18000,6 +19457,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K486" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -18036,6 +19496,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K487" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -18072,6 +19535,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K488" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -18108,6 +19574,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K489" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -18144,6 +19613,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K490" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -18180,6 +19652,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K491" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -18216,6 +19691,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K492" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -18252,6 +19730,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K493" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -18288,6 +19769,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K494" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -18324,6 +19808,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K495" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -18360,6 +19847,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K496" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -18396,6 +19886,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K497" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -18432,6 +19925,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K498" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -18468,6 +19964,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K499" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -18504,6 +20003,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K500" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -18540,6 +20042,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K501" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -18576,6 +20081,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -18612,6 +20120,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K503" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -18648,6 +20159,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K504" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -18684,6 +20198,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K505" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -18720,6 +20237,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K506" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -18756,6 +20276,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K507" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -18792,6 +20315,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K508" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -18828,6 +20354,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K509" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -18864,6 +20393,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K510" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -18900,6 +20432,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K511" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -18936,6 +20471,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K512" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -18972,6 +20510,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K513" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -19008,6 +20549,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K514" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -19044,6 +20588,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K515" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -19080,6 +20627,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K516" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -19116,6 +20666,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K517" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -19152,6 +20705,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K518" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -19188,6 +20744,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K519" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -19224,6 +20783,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K520" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -19260,6 +20822,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K521" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -19296,6 +20861,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K522" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -19332,6 +20900,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K523" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -19368,6 +20939,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K524" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -19404,6 +20978,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K525" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -19440,6 +21017,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K526" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -19476,6 +21056,9 @@
         </is>
       </c>
       <c r="J527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -19512,6 +21095,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K528" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -19548,6 +21134,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K529" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -19584,6 +21173,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K530" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -19620,6 +21212,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K531" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -19656,6 +21251,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K532" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -19692,6 +21290,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K533" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -19728,6 +21329,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K534" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -19764,6 +21368,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K535" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -19800,6 +21407,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K536" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -19836,6 +21446,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K537" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -19872,6 +21485,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K538" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -19908,6 +21524,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -19944,6 +21563,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K540" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -19980,6 +21602,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K541" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -20016,6 +21641,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K542" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -20052,6 +21680,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K543" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -20088,6 +21719,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K544" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -20124,6 +21758,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K545" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -20160,6 +21797,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K546" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -20196,6 +21836,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K547" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -20232,6 +21875,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K548" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -20268,6 +21914,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K549" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -20304,6 +21953,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K550" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -20340,6 +21992,9 @@
         </is>
       </c>
       <c r="J551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -20376,6 +22031,9 @@
         </is>
       </c>
       <c r="J552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -20412,6 +22070,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K553" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -20448,6 +22109,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K554" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -20484,6 +22148,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K555" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -20520,6 +22187,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K556" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -20556,6 +22226,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K557" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -20592,6 +22265,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K558" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -20628,6 +22304,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K559" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -20664,6 +22343,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K560" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -20700,6 +22382,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K561" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -20736,6 +22421,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K562" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -20776,6 +22464,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K563" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -20812,6 +22503,9 @@
         </is>
       </c>
       <c r="J564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -20848,6 +22542,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -20884,6 +22581,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K566" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -20920,6 +22620,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K567" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -20956,6 +22659,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K568" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -20992,6 +22698,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K569" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -21028,6 +22737,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K570" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -21064,6 +22776,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K571" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -21100,6 +22815,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K572" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -21136,6 +22854,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K573" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -21172,6 +22893,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K574" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -21208,6 +22932,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K575" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -21244,6 +22971,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K576" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -21280,6 +23010,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K577" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -21316,6 +23049,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K578" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -21352,6 +23088,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K579" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -21388,6 +23127,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K580" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -21424,6 +23166,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K581" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -21460,6 +23205,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K582" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -21496,6 +23244,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K583" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -21532,6 +23283,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K584" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -21568,6 +23322,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K585" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -21604,6 +23361,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K586" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -21640,6 +23400,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K587" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -21676,6 +23439,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K588" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -21712,6 +23478,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K589" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -21748,6 +23517,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K590" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -21784,6 +23556,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K591" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -21820,6 +23595,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K592" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -21856,6 +23634,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K593" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -21892,6 +23673,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K594" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -21928,6 +23712,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K595" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -21964,6 +23751,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K596" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -22000,6 +23790,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K597" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -22036,6 +23829,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K598" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -22072,6 +23868,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K599" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -22108,6 +23907,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K600" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -22144,6 +23946,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K601" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -22180,6 +23985,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K602" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -22216,6 +24024,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K603" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -22252,6 +24063,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K604" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -22288,6 +24102,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K605" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -22324,6 +24141,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K606" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -22360,6 +24180,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K607" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -22396,6 +24219,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K608" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -22432,6 +24258,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K609" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -22468,6 +24297,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K610" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -22504,6 +24336,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K611" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -22540,6 +24375,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K612" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -22576,6 +24414,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K613" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -22612,6 +24453,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K614" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -22648,6 +24492,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K615" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -22684,6 +24531,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K616" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -22720,6 +24570,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K617" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -22756,6 +24609,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K618" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -22792,6 +24648,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K619" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -22828,6 +24687,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K620" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -22864,6 +24726,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K621" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -22900,6 +24765,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K622" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -22936,6 +24804,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K623" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -22972,6 +24843,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K624" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -23008,6 +24882,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K625" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -23044,6 +24921,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K626" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -23080,6 +24960,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K627" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -23116,6 +24999,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K628" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -23152,6 +25038,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K629" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -23188,6 +25077,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K630" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -23224,6 +25116,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K631" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -23260,6 +25155,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K632" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -23296,6 +25194,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K633" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -23332,6 +25233,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K634" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -23368,6 +25272,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K635" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -23404,6 +25311,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K636" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -23440,6 +25350,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K637" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -23476,6 +25389,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K638" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -23512,6 +25428,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K639" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -23548,6 +25467,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K640" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -23584,6 +25506,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K641" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -23620,6 +25545,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K642" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -23656,6 +25584,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K643" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -23692,6 +25623,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K644" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -23728,6 +25662,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K645" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -23764,6 +25701,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K646" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -23800,6 +25740,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K647" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -23836,6 +25779,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K648" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -23872,6 +25818,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K649" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -23908,6 +25857,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K650" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -23944,6 +25896,9 @@
         </is>
       </c>
       <c r="J651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -23980,6 +25935,9 @@
         </is>
       </c>
       <c r="J652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -24016,6 +25974,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K653" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -24052,6 +26013,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K654" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -24092,6 +26056,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K655" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -24128,6 +26095,9 @@
         </is>
       </c>
       <c r="J656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -24164,6 +26134,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K657" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -24200,6 +26173,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K658" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -24236,6 +26212,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K659" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -24272,6 +26251,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K660" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -24308,6 +26290,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K661" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -24344,6 +26329,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K662" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -24380,6 +26368,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K663" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -24416,6 +26407,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K664" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -24452,6 +26446,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K665" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -24488,6 +26485,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K666" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -24524,6 +26524,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K667" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -24560,6 +26563,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K668" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -24596,6 +26602,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K669" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -24632,6 +26641,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K670" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -24668,6 +26680,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K671" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -24704,6 +26719,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K672" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -24740,6 +26758,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K673" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -24776,6 +26797,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K674" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -24812,6 +26836,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K675" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -24848,6 +26875,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K676" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -24884,6 +26914,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K677" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -24920,6 +26953,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K678" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -24960,6 +26996,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K679" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -24996,6 +27035,9 @@
         </is>
       </c>
       <c r="J680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -25032,6 +27074,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K681" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -25068,6 +27113,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K682" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -25104,6 +27152,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K683" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -25140,6 +27191,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K684" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -25176,6 +27230,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K685" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -25212,6 +27269,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K686" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -25248,6 +27308,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K687" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -25284,6 +27347,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K688" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -25320,6 +27386,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K689" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -25356,6 +27425,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K690" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -25392,6 +27464,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K691" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -25428,6 +27503,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K692" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -25468,6 +27546,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K693" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -25504,6 +27585,9 @@
         </is>
       </c>
       <c r="J694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -25540,6 +27624,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K695" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -25576,6 +27663,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K696" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -25612,6 +27702,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K697" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -25648,6 +27741,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K698" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -25684,6 +27780,9 @@
           <t>Représentant Légal manquant</t>
         </is>
       </c>
+      <c r="K699" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
